--- a/advance_Stats/AdvanceStatsHW3/HW3-F24-6359.xlsx
+++ b/advance_Stats/AdvanceStatsHW3/HW3-F24-6359.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cometmail-my.sharepoint.com/personal/asethi_utdallas_edu/Documents/Teach/eLearning-Tests/BUAN-6359/24F/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\R programming\R_Projects\BA with R\advance_Stats\AdvanceStatsHW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8000_{C2813100-683F-406D-8F26-36DD256BB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C7A9D-8702-405E-BA04-8B4A59B2DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6612" yWindow="480" windowWidth="23160" windowHeight="16284" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1590" windowWidth="21660" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -32,10 +33,13 @@
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Logistics!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'t-test'!$D$2</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -46,8 +50,11 @@
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>The Online test</t>
   </si>
@@ -236,12 +243,84 @@
   <si>
     <t xml:space="preserve">vaccine status.  </t>
   </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) one-tail</t>
+  </si>
+  <si>
+    <t>F Critical one-tail</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +386,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +482,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -439,11 +575,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,88 +965,88 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C18" s="8"/>
     </row>
-    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="26" spans="2:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
     </row>
   </sheetData>
@@ -907,33 +1056,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2AAFA7-2881-41A7-84E3-7D638931C233}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -946,32 +1096,32 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -979,12 +1129,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
@@ -997,33 +1147,33 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1036,74 +1186,90 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M29" s="1">
+        <f>-10.89*LN(1.12)</f>
+        <v>-1.2341493829932657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <f>-10.28*(LN(5361)-LN(6385))</f>
+        <v>1.7969539164899706</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <f>-10.37*LN(0.82)</f>
+        <v>2.0579362345662031</v>
       </c>
     </row>
   </sheetData>
@@ -1119,21 +1285,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD3467E-B26D-42B1-9017-DC5715DE7141}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="12" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="12"/>
-    <col min="4" max="4" width="10.88671875" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="13.5703125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="12"/>
+    <col min="4" max="4" width="10.85546875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="11.85546875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -1147,7 +1315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1162,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>0</v>
       </c>
@@ -1177,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -1192,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>0</v>
       </c>
@@ -1206,8 +1374,9 @@
         <f>(1-A5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -1220,8 +1389,29 @@
       <c r="D6" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="9">
+        <v>55</v>
+      </c>
+      <c r="N6" s="9">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -1234,8 +1424,24 @@
       <c r="D7" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7" s="9">
+        <v>-1.0296799999999999</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.9009999999999998E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-0.39284999999999998</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-1.9534899999999999</v>
+      </c>
+      <c r="M7" s="9">
+        <f>G7+SUMPRODUCT(H7:J7,M6:O6)</f>
+        <v>-1.0840799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>0</v>
       </c>
@@ -1249,8 +1455,12 @@
         <f>(1-A8)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M8" s="9">
+        <f>EXP(M7)</f>
+        <v>0.3382127985816355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>0</v>
       </c>
@@ -1263,8 +1473,12 @@
       <c r="D9" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M9" s="9">
+        <f>M8/(1+M8)</f>
+        <v>0.25273469132869258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1</v>
       </c>
@@ -1278,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>1</v>
       </c>
@@ -1293,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>1</v>
       </c>
@@ -1308,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>0</v>
       </c>
@@ -1322,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -1336,8 +1550,12 @@
         <f>(1-A14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M14" s="9">
+        <f>EXP(H7*1)</f>
+        <v>1.0502308529960467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0</v>
       </c>
@@ -1351,8 +1569,12 @@
         <f>(1-A15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M15" s="9">
+        <f>EXP(I7*(3-7))</f>
+        <v>4.8133822139607032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>0</v>
       </c>
@@ -1366,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>0</v>
       </c>
@@ -1381,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -1395,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -1410,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>0</v>
       </c>
@@ -1424,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>0</v>
       </c>
@@ -1439,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>0</v>
       </c>
@@ -1454,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>0</v>
       </c>
@@ -1468,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0</v>
       </c>
@@ -1483,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>1</v>
       </c>
@@ -1497,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>1</v>
       </c>
@@ -1512,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0</v>
       </c>
@@ -1527,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1</v>
       </c>
@@ -1542,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>1</v>
       </c>
@@ -1557,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>1</v>
       </c>
@@ -1571,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>1</v>
       </c>
@@ -1586,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>0</v>
       </c>
@@ -1601,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>1</v>
       </c>
@@ -1616,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>0</v>
       </c>
@@ -1630,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>0</v>
       </c>
@@ -1645,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>1</v>
       </c>
@@ -1660,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>0</v>
       </c>
@@ -1675,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>0</v>
       </c>
@@ -1690,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>0</v>
       </c>
@@ -1704,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1</v>
       </c>
@@ -1719,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>0</v>
       </c>
@@ -1734,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>0</v>
       </c>
@@ -1748,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>0</v>
       </c>
@@ -1763,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>0</v>
       </c>
@@ -1778,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>0</v>
       </c>
@@ -1793,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>1</v>
       </c>
@@ -1808,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>1</v>
       </c>
@@ -1822,445 +2044,445 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
       <c r="D396" s="11"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="10"/>
       <c r="B397" s="10"/>
       <c r="C397" s="10"/>
       <c r="D397" s="11"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="10"/>
       <c r="B398" s="10"/>
       <c r="C398" s="10"/>
       <c r="D398" s="11"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
       <c r="B399" s="10"/>
       <c r="C399" s="10"/>
       <c r="D399" s="11"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="10"/>
       <c r="B400" s="10"/>
       <c r="C400" s="10"/>
       <c r="D400" s="11"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="10"/>
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
@@ -2274,19 +2496,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA346F73-2A20-4288-83B8-1BB088093CCB}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="9.28515625" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -2327,8 +2549,17 @@
       <c r="D3" s="16">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
@@ -2341,8 +2572,15 @@
       <c r="D4" s="16">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -2355,8 +2593,25 @@
       <c r="D5" s="16">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
@@ -2369,8 +2624,17 @@
       <c r="D6" s="16">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2383,8 +2647,25 @@
       <c r="D7" s="16">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2397,8 +2678,25 @@
       <c r="D8" s="16">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8">
+        <v>862</v>
+      </c>
+      <c r="J8">
+        <v>835</v>
+      </c>
+      <c r="K8">
+        <v>754</v>
+      </c>
+      <c r="L8">
+        <v>2451</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2411,8 +2709,25 @@
       <c r="D9" s="16">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>86.2</v>
+      </c>
+      <c r="J9">
+        <v>83.5</v>
+      </c>
+      <c r="K9">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L9">
+        <v>81.7</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
@@ -2425,8 +2740,25 @@
       <c r="D10" s="16">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>149.73333333333397</v>
+      </c>
+      <c r="J10">
+        <v>66.944444444444443</v>
+      </c>
+      <c r="K10">
+        <v>126.48888888888905</v>
+      </c>
+      <c r="L10">
+        <v>128.28620689655133</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
@@ -2439,8 +2771,15 @@
       <c r="D11" s="16">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -2453,8 +2792,17 @@
       <c r="D12" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -2467,8 +2815,25 @@
       <c r="D13" s="16">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2846,25 @@
       <c r="D14" s="16">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <v>838</v>
+      </c>
+      <c r="J14">
+        <v>903</v>
+      </c>
+      <c r="K14">
+        <v>720</v>
+      </c>
+      <c r="L14">
+        <v>2461</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -2495,8 +2877,25 @@
       <c r="D15" s="16">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>83.8</v>
+      </c>
+      <c r="J15">
+        <v>90.3</v>
+      </c>
+      <c r="K15">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <v>82.033333333333331</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
@@ -2509,8 +2908,25 @@
       <c r="D16" s="16">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>120.17777777777843</v>
+      </c>
+      <c r="J16">
+        <v>61.344444444444449</v>
+      </c>
+      <c r="K16">
+        <v>224</v>
+      </c>
+      <c r="L16">
+        <v>185.20574712643705</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -2523,8 +2939,15 @@
       <c r="D17" s="16">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -2537,8 +2960,17 @@
       <c r="D18" s="16">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -2551,8 +2983,25 @@
       <c r="D19" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -2565,8 +3014,25 @@
       <c r="D20" s="16">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20">
+        <v>873</v>
+      </c>
+      <c r="J20">
+        <v>746</v>
+      </c>
+      <c r="K20">
+        <v>870</v>
+      </c>
+      <c r="L20">
+        <v>2489</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -2579,8 +3045,25 @@
       <c r="D21" s="16">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>87.3</v>
+      </c>
+      <c r="J21">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="K21">
+        <v>87</v>
+      </c>
+      <c r="L21">
+        <v>82.966666666666669</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
@@ -2593,8 +3076,25 @@
       <c r="D22" s="16">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>117.12222222222287</v>
+      </c>
+      <c r="J22">
+        <v>100.26666666666682</v>
+      </c>
+      <c r="K22">
+        <v>122.44444444444444</v>
+      </c>
+      <c r="L22">
+        <v>141.6885057471267</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
@@ -2607,8 +3107,15 @@
       <c r="D23" s="16">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
@@ -2621,8 +3128,17 @@
       <c r="D24" s="16">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -2635,8 +3151,23 @@
       <c r="D25" s="16">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
@@ -2649,8 +3180,23 @@
       <c r="D26" s="16">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26">
+        <v>2573</v>
+      </c>
+      <c r="J26">
+        <v>2484</v>
+      </c>
+      <c r="K26">
+        <v>2344</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +3209,23 @@
       <c r="D27" s="16">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27">
+        <v>85.766666666666666</v>
+      </c>
+      <c r="J27">
+        <v>82.8</v>
+      </c>
+      <c r="K27">
+        <v>78.13333333333334</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -2677,8 +3238,23 @@
       <c r="D28" s="16">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28">
+        <v>122.32298850574719</v>
+      </c>
+      <c r="J28">
+        <v>113.68275862068926</v>
+      </c>
+      <c r="K28">
+        <v>189.42988505747152</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -2691,8 +3267,15 @@
       <c r="D29" s="16">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -2705,8 +3288,15 @@
       <c r="D30" s="16">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -2719,30 +3309,246 @@
       <c r="D31" s="16">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33">
+        <v>25.866666666670426</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>12.933333333335213</v>
+      </c>
+      <c r="L33">
+        <v>0.10693396756052062</v>
+      </c>
+      <c r="M33">
+        <v>0.898711647255511</v>
+      </c>
+      <c r="N33">
+        <v>3.1093105474971612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34">
+        <v>888.46666666666897</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>444.23333333333449</v>
+      </c>
+      <c r="L34">
+        <v>3.672961303296018</v>
+      </c>
+      <c r="M34">
+        <v>2.972279114335219E-2</v>
+      </c>
+      <c r="N34">
+        <v>3.1093105474971612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35">
+        <v>2515.0666666666657</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>628.76666666666642</v>
+      </c>
+      <c r="L35">
+        <v>5.1986995620974392</v>
+      </c>
+      <c r="M35">
+        <v>8.8714812526128055E-4</v>
+      </c>
+      <c r="N35">
+        <v>2.4844414397145309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36">
+        <v>9796.6999999999989</v>
+      </c>
+      <c r="J36">
+        <v>81</v>
+      </c>
+      <c r="K36">
+        <v>120.9469135802469</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="26">
+        <v>13226.100000000004</v>
+      </c>
+      <c r="J38" s="26">
+        <v>89</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2752,471 +3558,757 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA830FD-A2FB-4E42-819E-6DC0F6749F48}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20">
+        <f>LN(A2)</f>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="D2" s="20">
+        <f>AVERAGE(B2:B67)</f>
+        <v>2.1494093366774201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20">
+        <f t="shared" ref="B3:B66" si="0">LN(A3)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="D3" s="20">
+        <f>SKEW(B2:B67)</f>
+        <v>0.13499622940115152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="D4" s="20">
+        <f>_xlfn.STDEV.S(B2:B67)</f>
+        <v>0.46572908813745134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="E7" s="20">
+        <f>_xlfn.SKEW.P(B2:B67)</f>
+        <v>0.13190855601872639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8903717578961645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <f t="shared" si="0"/>
+        <v>2.6390573296152584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1780538303479458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7725887222397811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
+        <f t="shared" si="0"/>
+        <v>3.2188758248682006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="20">
+        <f t="shared" si="0"/>
+        <v>3.044522437723423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="20">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8903717578961645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="20">
+        <f t="shared" si="0"/>
+        <v>2.7725887222397811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5649493574615367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20">
+        <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20">
+        <f t="shared" ref="B67" si="1">LN(A67)</f>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B3" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD509BC7-7DC0-4DED-9A1A-EB3FC3D46B25}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="17"/>
+    <col min="1" max="2" width="8.85546875" style="17"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -3224,15 +4316,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>14</v>
       </c>
       <c r="B2" s="18">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>12</v>
       </c>
@@ -3240,71 +4335,137 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>14</v>
       </c>
       <c r="B4" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>12</v>
       </c>
       <c r="B5" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>11.756756756756756</v>
+      </c>
+      <c r="F5">
+        <v>13.148936170212766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>8</v>
       </c>
       <c r="B6" s="18">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>8.1891891891891895</v>
+      </c>
+      <c r="F6">
+        <v>14.086031452358919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>10</v>
       </c>
       <c r="B7" s="18">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>13</v>
       </c>
       <c r="B8" s="18">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>13</v>
       </c>
       <c r="B9" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0.58136950899806394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>4.7286565314434537E-2</v>
+      </c>
+      <c r="G10">
+        <f>2*E10</f>
+        <v>9.4573130628869073E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>12</v>
       </c>
       <c r="B11" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.58653838122561319</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>5</v>
       </c>
@@ -3312,7 +4473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>13</v>
       </c>
@@ -3320,7 +4481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -3328,7 +4489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -3336,7 +4497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -3344,7 +4505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -3352,7 +4513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>11</v>
       </c>
@@ -3360,7 +4521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>9</v>
       </c>
@@ -3368,7 +4529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>11</v>
       </c>
@@ -3376,7 +4537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>10</v>
       </c>
@@ -3384,7 +4545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>15</v>
       </c>
@@ -3392,7 +4553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -3400,7 +4561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>11</v>
       </c>
@@ -3408,7 +4569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>15</v>
       </c>
@@ -3416,7 +4577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>9</v>
       </c>
@@ -3424,7 +4585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>11</v>
       </c>
@@ -3432,7 +4593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>11</v>
       </c>
@@ -3440,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>18</v>
       </c>
@@ -3448,7 +4609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>13</v>
       </c>
@@ -3456,7 +4617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>11</v>
       </c>
@@ -3464,7 +4625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>7</v>
       </c>
@@ -3472,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>14</v>
       </c>
@@ -3480,7 +4641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>13</v>
       </c>
@@ -3488,7 +4649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>12</v>
       </c>
@@ -3496,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>15</v>
       </c>
@@ -3504,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>15</v>
       </c>
@@ -3512,7 +4673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>14</v>
       </c>
@@ -3520,61 +4681,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="18">
         <v>12</v>
